--- a/notebooks/KIF5A/input/KIF5A_SPG10_individuals.xlsx
+++ b/notebooks/KIF5A/input/KIF5A_SPG10_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/KIF5A/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4327AA56-EDAC-FE43-B85B-BDE2C7960157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B533C-5D97-7643-85C4-199D67FEB906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="7300" windowWidth="52820" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="108">
   <si>
     <t>PMID</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>HP:0003401</t>
+  </si>
+  <si>
+    <t>patient</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
   <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1371,6 +1374,9 @@
       <c r="B7" t="s">
         <v>90</v>
       </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
